--- a/exercises/mock_functions.xlsx
+++ b/exercises/mock_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\excel-pack\VBScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A889EC4C-B293-40EB-A7AA-1CD8C1E93B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{A889EC4C-B293-40EB-A7AA-1CD8C1E93B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A597CA-5FDC-413F-8C63-0EC63E064A62}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="-120" windowWidth="37830" windowHeight="21840" tabRatio="720" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSUM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="PAIRSUM" sheetId="7" r:id="rId6"/>
     <sheet name="SHORTESTWORDS" sheetId="8" r:id="rId7"/>
     <sheet name="STRAYNUMBER" sheetId="9" r:id="rId8"/>
-    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="2" state="veryHidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="POSSUM">_xlfn.LAMBDA(_xlpm.x, SUM(_xlfn._xlws.FILTER(_xlpm.x, _xlpm.x &gt; 0, 0)))</definedName>
@@ -56,9 +55,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -69,25 +67,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -314,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,20 +389,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Forklarende tekst" xfId="4" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Overskrift 3" xfId="3" builtinId="18"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,68 +414,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>1</v>
-    <v>8</v>
-    <v>1</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +713,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="849" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="934" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -813,6 +734,11 @@
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
       <we:containsCustomFunctions/>
     </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
   </we:extLst>
 </we:webextension>
 </file>
@@ -823,79 +749,79 @@
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>9</v>
       </c>
@@ -918,30 +844,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=Solutions.POSSUM(B17:H17)</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" cm="1">
         <f t="array" ref="B20">Solutions.POSSUM(B17:H17)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-3.9792752693841527E-2</v>
       </c>
@@ -955,56 +881,56 @@
         <v>-5.4281654021094639E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=Solutions.POSSUM(B24:E24)</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" cm="1">
         <f t="array" ref="B27">Solutions.POSSUM(B24:E24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-2</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=Solutions.POSSUM(B31:B34)</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" cm="1">
         <f t="array" ref="B37">Solutions.POSSUM(B31:B34)</f>
         <v>3</v>
@@ -1022,74 +948,74 @@
   <dimension ref="B2:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1112,13 +1038,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=Solutions.MAKENEGATIVE(B16:H16)</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" cm="1">
         <f t="array" ref="B19:H19">Solutions.MAKENEGATIVE(B16:H16)</f>
         <v>-1</v>
@@ -1142,18 +1068,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1176,13 +1102,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=Solutions.MAKENEGATIVE(B24:H24)</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" cm="1">
         <f t="array" ref="B27:H27">Solutions.MAKENEGATIVE(B24:H24)</f>
         <v>-1</v>
@@ -1206,18 +1132,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -1240,13 +1166,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B35)</f>
         <v>=Solutions.MAKENEGATIVE(B32:H32)</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35:H35">Solutions.MAKENEGATIVE(B32:H32)</f>
         <v>a</v>
@@ -1284,149 +1210,149 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
-        <v>=Solutions.REPEATTEXT("a";10)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>=Solutions.REPEATTEXT("a",10)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">Solutions.REPEATTEXT("a",10)</f>
         <v>aaaaaaaaaa</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B23)</f>
-        <v>=Solutions.REPEATTEXT("Who is John Galt?";4)</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>=Solutions.REPEATTEXT("Who is John Galt?",4)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">Solutions.REPEATTEXT("Who is John Galt?",4)</f>
         <v>Who is John Galt?Who is John Galt?Who is John Galt?Who is John Galt?</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B29)</f>
-        <v>=Solutions.REPEATTEXT("Who is John Galt?";0)</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>=Solutions.REPEATTEXT("Who is John Galt?",0)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">Solutions.REPEATTEXT("Who is John Galt?",0)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,76 +1368,76 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-1</v>
       </c>
@@ -1534,35 +1460,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=Solutions.POSNEG(B16:H16)</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" cm="1">
         <f t="array" ref="B19:B20">Solutions.POSNEG(B16:H16)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-6</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1585,35 +1511,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=Solutions.POSNEG(B24:H24)</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" cm="1">
         <f t="array" ref="B27:B28">Solutions.POSNEG(B24:H24)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -1636,19 +1562,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B36)</f>
         <v>=Solutions.POSNEG(B33:H33)</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" cm="1">
         <f t="array" ref="B36:B37">Solutions.POSNEG(B33:H33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
@@ -1667,138 +1593,138 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B13" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B18)</f>
         <v>=Solutions.COUNTVOWELS(B15)</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" cm="1">
         <f t="array" ref="B18">Solutions.COUNTVOWELS(B15)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B26)</f>
         <v>=Solutions.COUNTVOWELS(B23)</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" cm="1">
         <f t="array" ref="B26">Solutions.COUNTVOWELS(B23)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B34)</f>
         <v>=Solutions.COUNTVOWELS(B31)</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" cm="1">
         <f t="array" ref="B34">Solutions.COUNTVOWELS(B31)</f>
         <v>12</v>
@@ -1817,76 +1743,76 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1909,45 +1835,45 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=Solutions.PAIRSUM(B17:H17)</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" cm="1">
         <f t="array" ref="B20">Solutions.PAIRSUM(B17:H17)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>6</v>
       </c>
@@ -1970,40 +1896,40 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B31)</f>
         <v>=Solutions.PAIRSUM(B28:H28)</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" cm="1">
         <f t="array" ref="B31">Solutions.PAIRSUM(B28:H28)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -2026,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>8</v>
       </c>
@@ -2049,24 +1975,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B42)</f>
         <v>=Solutions.PAIRSUM(B38:H39)</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="e" cm="1">
         <f t="array" ref="B42">Solutions.PAIRSUM(B38:H39)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -2084,139 +2010,139 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B17" s="4" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=Solutions.SHORTESTWORDS(B19)</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22:B23">Solutions.SHORTESTWORDS(B19)</f>
         <v>I</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <v>a</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="e" cm="1">
         <f t="array" ref="B30">Solutions.SHORTESTWORDS(B28)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2228,74 +2154,74 @@
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="2:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickTop="1"/>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2315,30 +2241,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=Solutions.STRAYNUMBER(B17:G17)</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" cm="1">
         <f t="array" ref="B20">Solutions.STRAYNUMBER(B17:G17)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2352,30 +2278,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B28)</f>
         <v>=Solutions.STRAYNUMBER(B25:E25)</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" cm="1">
         <f t="array" ref="B28">Solutions.STRAYNUMBER(B25:E25)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3</v>
       </c>
@@ -2392,71 +2318,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=Solutions.STRAYNUMBER(B34:E36)</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">Solutions.STRAYNUMBER(B34:E36)</f>
         <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3567C945-8733-4BCE-A0E6-E2B71F02E8AA}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <f>SUM(,)</f>
-        <v>0</v>
-      </c>
-      <c r="B1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="B1" ca="1">{1,2;3,4}</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C1">
-        <f>LEN("abc")</f>
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <f>SUM(1)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f>1.5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>37653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="str">
-        <f>DOLLAR(1,0)</f>
-        <v>1 XDR</v>
-      </c>
-      <c r="B3" t="str">
-        <f>ADDRESS(1,1,2,0)</f>
-        <v>R1C[1]</v>
-      </c>
-      <c r="C3" t="str">
-        <f>FIXED(1E+21, 0, FALSE)</f>
-        <v>1,000,000,000,000,000,000,000</v>
       </c>
     </row>
   </sheetData>
@@ -2469,5 +2340,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{634150BA-6B45-4C58-B0F2-F493878D674A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{634150BA-6B45-4C58-B0F2-F493878D674A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/exercises/mock_functions.xlsx
+++ b/exercises/mock_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{A889EC4C-B293-40EB-A7AA-1CD8C1E93B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A597CA-5FDC-413F-8C63-0EC63E064A62}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{A889EC4C-B293-40EB-A7AA-1CD8C1E93B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322F3134-B6A6-4B24-A816-F64585F9E949}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="720" firstSheet="1" activeTab="6" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSUM" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,7 +717,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="934" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="1296" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -748,8 +752,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1211,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1281,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
-        <v>=Solutions.REPEATTEXT("a",10)</v>
+        <v>=Solutions.REPEATTEXT("a";10)</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1304,7 @@
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B23)</f>
-        <v>=Solutions.REPEATTEXT("Who is John Galt?",4)</v>
+        <v>=Solutions.REPEATTEXT("Who is John Galt?";4)</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1323,7 +1327,7 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B29)</f>
-        <v>=Solutions.REPEATTEXT("Who is John Galt?",0)</v>
+        <v>=Solutions.REPEATTEXT("Who is John Galt?";0)</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1365,7 +1369,7 @@
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="H37" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1594,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1744,7 @@
   <dimension ref="B2:H45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E626D3-EE65-4FDA-960E-BD161E6084FD}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E123CA94-7FC9-404A-B044-DF78CEB6273E}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
